--- a/output/FreqDiscovCitptile0.9alpha0.05power0.6N1000/FreqDiscovCitptile0.9alpha0.05power0.6N1000N1000.xlsx
+++ b/output/FreqDiscovCitptile0.9alpha0.05power0.6N1000/FreqDiscovCitptile0.9alpha0.05power0.6N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\FreqDiscovCitptile0.9alpha0.05power0.6N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7765AD07-ED82-446C-B48B-8E5370AF7CC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0664514-45F8-4FC7-B867-9C9AEFD53A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3105" windowWidth="21600" windowHeight="12735" xr2:uid="{A9C019D7-BDD7-4B3C-8DDF-DC9C27616807}"/>
+    <workbookView xWindow="1152" yWindow="6684" windowWidth="27060" windowHeight="10800" xr2:uid="{229993C4-16DA-4A59-B305-F5051E610039}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,29 +466,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05D5A5C-5A98-44F9-B527-10AB713857DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC00D4F-E7B2-47D8-B77A-7101489EAE8F}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -543,46 +543,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.0327117303720539E-2</v>
+        <v>5.0910375194419537E-2</v>
       </c>
       <c r="D2">
-        <v>0.62279862540099151</v>
+        <v>0.60577347785409918</v>
       </c>
       <c r="E2">
-        <v>8.9909999999999997</v>
+        <v>8.99</v>
       </c>
       <c r="F2">
-        <v>110.193</v>
+        <v>109.983</v>
       </c>
       <c r="G2">
-        <v>3.5579999999999998</v>
+        <v>3.4390000000000001</v>
       </c>
       <c r="H2">
-        <v>0.52700000000000002</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="I2">
-        <v>0.47599999999999998</v>
+        <v>0.42</v>
       </c>
       <c r="J2">
-        <v>5.8198170256697095E-2</v>
+        <v>4.5181805116412774E-2</v>
       </c>
       <c r="K2">
-        <v>0.60468393860049607</v>
+        <v>0.61401498381428676</v>
       </c>
       <c r="L2">
-        <v>10.193</v>
+        <v>9.9830000000000005</v>
       </c>
       <c r="M2">
-        <v>110.193</v>
+        <v>109.983</v>
       </c>
       <c r="N2">
-        <v>0.57499999999999996</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="O2">
-        <v>0.48599999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -590,46 +590,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.1156103658702247E-2</v>
+        <v>4.8235970188975442E-2</v>
       </c>
       <c r="D3">
-        <v>0.60510988313513536</v>
+        <v>0.60905508341222703</v>
       </c>
       <c r="E3">
-        <v>9.1620000000000008</v>
+        <v>9.0429999999999993</v>
       </c>
       <c r="F3">
-        <v>110.196</v>
+        <v>109.849</v>
       </c>
       <c r="G3">
-        <v>3.6549999999999998</v>
+        <v>3.5619999999999998</v>
       </c>
       <c r="H3">
-        <v>0.35699999999999998</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="I3">
-        <v>0.34899999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="J3">
-        <v>5.3935185185185176E-2</v>
+        <v>4.2662916080637596E-2</v>
       </c>
       <c r="K3">
-        <v>0.64645308924485123</v>
+        <v>0.60398065476190488</v>
       </c>
       <c r="L3">
-        <v>10.196</v>
+        <v>9.8490000000000002</v>
       </c>
       <c r="M3">
-        <v>101.05</v>
+        <v>100.995</v>
       </c>
       <c r="N3">
-        <v>0.42499999999999999</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="O3">
-        <v>0.38100000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -637,46 +637,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4.9395345158755107E-2</v>
+        <v>4.9777383656882279E-2</v>
       </c>
       <c r="D4">
-        <v>0.6074563369808732</v>
+        <v>0.60553071954686066</v>
       </c>
       <c r="E4">
-        <v>8.9570000000000007</v>
+        <v>9.0850000000000009</v>
       </c>
       <c r="F4">
-        <v>109.879</v>
+        <v>110.071</v>
       </c>
       <c r="G4">
-        <v>3.544</v>
+        <v>3.609</v>
       </c>
       <c r="H4">
-        <v>0.47399999999999998</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="I4">
         <v>0.495</v>
       </c>
       <c r="J4">
-        <v>3.7911301859799712E-2</v>
+        <v>3.391472868217054E-2</v>
       </c>
       <c r="K4">
-        <v>0.60810265282583631</v>
+        <v>0.62986712882726781</v>
       </c>
       <c r="L4">
-        <v>9.8789999999999996</v>
+        <v>10.071</v>
       </c>
       <c r="M4">
-        <v>101.47199999999999</v>
+        <v>101.49299999999999</v>
       </c>
       <c r="N4">
-        <v>0.54900000000000004</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="O4">
-        <v>0.51600000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -684,46 +684,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5.0045712752546913E-2</v>
+        <v>4.9764281351501072E-2</v>
       </c>
       <c r="D5">
-        <v>0.60593276120503581</v>
+        <v>0.60096662575658966</v>
       </c>
       <c r="E5">
-        <v>9.0640000000000001</v>
+        <v>9.0879999999999992</v>
       </c>
       <c r="F5">
-        <v>110.051</v>
+        <v>110.045</v>
       </c>
       <c r="G5">
-        <v>3.5449999999999999</v>
+        <v>3.5840000000000001</v>
       </c>
       <c r="H5">
-        <v>0.83499999999999996</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="I5">
-        <v>0.752</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="J5">
-        <v>5.15151515151515E-2</v>
+        <v>3.8621794871794866E-2</v>
       </c>
       <c r="K5">
-        <v>0.6086503623188404</v>
+        <v>0.60116959064327502</v>
       </c>
       <c r="L5">
-        <v>10.051</v>
+        <v>10.045</v>
       </c>
       <c r="M5">
-        <v>102.431</v>
+        <v>102.42</v>
       </c>
       <c r="N5">
-        <v>0.86699999999999999</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="O5">
-        <v>0.80800000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,46 +731,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.9442627330536258E-2</v>
+        <v>8.0584052933562175E-2</v>
       </c>
       <c r="D6">
-        <v>0.69561591307377424</v>
+        <v>0.74769927592588081</v>
       </c>
       <c r="E6">
-        <v>8.9120000000000008</v>
+        <v>9.0009999999999994</v>
       </c>
       <c r="F6">
-        <v>112.548</v>
+        <v>114.06699999999999</v>
       </c>
       <c r="G6">
-        <v>4.6710000000000003</v>
+        <v>5.7060000000000004</v>
       </c>
       <c r="H6">
-        <v>0.66900000000000004</v>
+        <v>0.876</v>
       </c>
       <c r="I6">
-        <v>0.64900000000000002</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="J6">
-        <v>6.4870720426276104E-2</v>
+        <v>8.4073121731210204E-2</v>
       </c>
       <c r="K6">
-        <v>0.68018223631116748</v>
+        <v>0.7612693369279705</v>
       </c>
       <c r="L6">
-        <v>12.548</v>
+        <v>14.067</v>
       </c>
       <c r="M6">
-        <v>112.548</v>
+        <v>114.06699999999999</v>
       </c>
       <c r="N6">
-        <v>0.68300000000000005</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="O6">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -778,46 +778,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>6.9156443754395586E-2</v>
+        <v>8.0418092594476631E-2</v>
       </c>
       <c r="D7">
-        <v>0.68932348887650519</v>
+        <v>0.74745640071582242</v>
       </c>
       <c r="E7">
-        <v>8.9559999999999995</v>
+        <v>8.8689999999999998</v>
       </c>
       <c r="F7">
-        <v>112.459</v>
+        <v>113.99</v>
       </c>
       <c r="G7">
-        <v>4.6829999999999998</v>
+        <v>5.5419999999999998</v>
       </c>
       <c r="H7">
-        <v>0.46800000000000003</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="I7">
-        <v>0.41599999999999998</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="J7">
-        <v>6.9395179627103246E-2</v>
+        <v>6.8980863373386742E-2</v>
       </c>
       <c r="K7">
-        <v>0.69639065817409773</v>
+        <v>0.71062941554271042</v>
       </c>
       <c r="L7">
-        <v>12.459</v>
+        <v>13.99</v>
       </c>
       <c r="M7">
-        <v>101.261</v>
+        <v>101.44799999999999</v>
       </c>
       <c r="N7">
-        <v>0.51200000000000001</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="O7">
-        <v>0.44800000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -825,46 +825,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.9306973315963388E-2</v>
+        <v>8.1470541048613843E-2</v>
       </c>
       <c r="D8">
-        <v>0.69002143108001379</v>
+        <v>0.74205690187133189</v>
       </c>
       <c r="E8">
-        <v>8.81</v>
+        <v>8.9740000000000002</v>
       </c>
       <c r="F8">
-        <v>112.432</v>
+        <v>114.163</v>
       </c>
       <c r="G8">
-        <v>4.6920000000000002</v>
+        <v>5.68</v>
       </c>
       <c r="H8">
-        <v>0.67200000000000004</v>
+        <v>0.86</v>
       </c>
       <c r="I8">
-        <v>0.60299999999999998</v>
+        <v>0.746</v>
       </c>
       <c r="J8">
-        <v>6.7624777183600729E-2</v>
+        <v>7.6801215277777779E-2</v>
       </c>
       <c r="K8">
-        <v>0.68037166085946565</v>
+        <v>0.74486584107327158</v>
       </c>
       <c r="L8">
-        <v>12.432</v>
+        <v>14.163</v>
       </c>
       <c r="M8">
-        <v>101.768</v>
+        <v>102.08199999999999</v>
       </c>
       <c r="N8">
-        <v>0.68300000000000005</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="O8">
-        <v>0.61299999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -872,46 +872,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>7.0272943176062239E-2</v>
+        <v>8.2412282030851297E-2</v>
       </c>
       <c r="D9">
-        <v>0.68288220945047762</v>
+        <v>0.74195748286107466</v>
       </c>
       <c r="E9">
-        <v>8.9890000000000008</v>
+        <v>8.9320000000000004</v>
       </c>
       <c r="F9">
-        <v>112.515</v>
+        <v>114.19199999999999</v>
       </c>
       <c r="G9">
-        <v>4.6260000000000003</v>
+        <v>5.5819999999999999</v>
       </c>
       <c r="H9">
-        <v>1.0900000000000001</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="I9">
-        <v>0.97899999999999998</v>
+        <v>1.288</v>
       </c>
       <c r="J9">
-        <v>7.2389558232931778E-2</v>
+        <v>9.0343608441056239E-2</v>
       </c>
       <c r="K9">
-        <v>0.65353641456582656</v>
+        <v>0.76748604678779253</v>
       </c>
       <c r="L9">
-        <v>12.515000000000001</v>
+        <v>14.192</v>
       </c>
       <c r="M9">
-        <v>102.913</v>
+        <v>103.42</v>
       </c>
       <c r="N9">
-        <v>1.0449999999999999</v>
+        <v>1.399</v>
       </c>
       <c r="O9">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2370000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -919,46 +919,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.10154641042438316</v>
+        <v>0.10860068336590532</v>
       </c>
       <c r="D10">
-        <v>0.87065535995116639</v>
+        <v>0.91725455534711919</v>
       </c>
       <c r="E10">
-        <v>9.0530000000000008</v>
+        <v>9.1489999999999991</v>
       </c>
       <c r="F10">
-        <v>117.10899999999999</v>
+        <v>118.30200000000001</v>
       </c>
       <c r="G10">
-        <v>7.7480000000000002</v>
+        <v>8.7240000000000002</v>
       </c>
       <c r="H10">
-        <v>1.1060000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="I10">
-        <v>0.96799999999999997</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="J10">
-        <v>0.10315574170411665</v>
+        <v>0.10710881428083482</v>
       </c>
       <c r="K10">
-        <v>0.8639065801353889</v>
+        <v>0.91479647337884673</v>
       </c>
       <c r="L10">
-        <v>17.109000000000002</v>
+        <v>18.302</v>
       </c>
       <c r="M10">
-        <v>117.10899999999999</v>
+        <v>118.30200000000001</v>
       </c>
       <c r="N10">
-        <v>1.1299999999999999</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="O10">
-        <v>0.95799999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -966,46 +966,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.10090051133062578</v>
+        <v>0.10913632113321929</v>
       </c>
       <c r="D11">
-        <v>0.86115368772799894</v>
+        <v>0.9087799822283652</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>9.1639999999999997</v>
       </c>
       <c r="F11">
-        <v>116.914</v>
+        <v>118.425</v>
       </c>
       <c r="G11">
-        <v>7.5140000000000002</v>
+        <v>8.8569999999999993</v>
       </c>
       <c r="H11">
-        <v>0.74399999999999999</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="I11">
-        <v>0.68300000000000005</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="J11">
-        <v>9.5360598065083554E-2</v>
+        <v>9.9295774647887303E-2</v>
       </c>
       <c r="K11">
-        <v>0.88404984423676014</v>
+        <v>0.92080459770114975</v>
       </c>
       <c r="L11">
-        <v>16.914000000000001</v>
+        <v>18.425000000000001</v>
       </c>
       <c r="M11">
-        <v>101.68</v>
+        <v>101.902</v>
       </c>
       <c r="N11">
-        <v>0.81200000000000006</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="O11">
-        <v>0.71199999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1013,46 +1013,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.10165110252249501</v>
+        <v>0.10683547951428271</v>
       </c>
       <c r="D12">
-        <v>0.85942964648432074</v>
+        <v>0.91026538200125551</v>
       </c>
       <c r="E12">
-        <v>8.7970000000000006</v>
+        <v>9.0690000000000008</v>
       </c>
       <c r="F12">
-        <v>116.845</v>
+        <v>117.979</v>
       </c>
       <c r="G12">
-        <v>7.5190000000000001</v>
+        <v>8.6159999999999997</v>
       </c>
       <c r="H12">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="I12">
-        <v>0.91500000000000004</v>
+        <v>1.087</v>
       </c>
       <c r="J12">
-        <v>0.10271650326797384</v>
+        <v>9.8439375750300109E-2</v>
       </c>
       <c r="K12">
-        <v>0.86520961145194297</v>
+        <v>0.92625968992248064</v>
       </c>
       <c r="L12">
-        <v>16.844999999999999</v>
+        <v>17.978999999999999</v>
       </c>
       <c r="M12">
-        <v>102.474</v>
+        <v>102.57</v>
       </c>
       <c r="N12">
-        <v>1.1339999999999999</v>
+        <v>1.2470000000000001</v>
       </c>
       <c r="O12">
-        <v>0.98899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.0920000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1060,46 +1060,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.10096083534742513</v>
+        <v>0.10791730371108964</v>
       </c>
       <c r="D13">
-        <v>0.86959310439583426</v>
+        <v>0.91368819897165987</v>
       </c>
       <c r="E13">
-        <v>8.8960000000000008</v>
+        <v>9.0790000000000006</v>
       </c>
       <c r="F13">
-        <v>116.81699999999999</v>
+        <v>118.04</v>
       </c>
       <c r="G13">
-        <v>7.5129999999999999</v>
+        <v>8.5530000000000008</v>
       </c>
       <c r="H13">
-        <v>1.7749999999999999</v>
+        <v>2.056</v>
       </c>
       <c r="I13">
-        <v>1.53</v>
+        <v>1.895</v>
       </c>
       <c r="J13">
-        <v>9.5354076681064368E-2</v>
+        <v>0.10879050745024488</v>
       </c>
       <c r="K13">
-        <v>0.87023509277607614</v>
+        <v>0.92017499579337048</v>
       </c>
       <c r="L13">
-        <v>16.817</v>
+        <v>18.04</v>
       </c>
       <c r="M13">
-        <v>103.886</v>
+        <v>104.318</v>
       </c>
       <c r="N13">
-        <v>1.7190000000000001</v>
+        <v>2.0990000000000002</v>
       </c>
       <c r="O13">
-        <v>1.518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.8480000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1107,46 +1107,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.11488138846321035</v>
+        <v>0.12252892707554598</v>
       </c>
       <c r="D14">
-        <v>0.92645212325591697</v>
+        <v>0.96657427832471443</v>
       </c>
       <c r="E14">
-        <v>9.0950000000000006</v>
+        <v>8.91</v>
       </c>
       <c r="F14">
-        <v>118.744</v>
+        <v>119.732</v>
       </c>
       <c r="G14">
-        <v>8.8309999999999995</v>
+        <v>9.6449999999999996</v>
       </c>
       <c r="H14">
-        <v>1.3120000000000001</v>
+        <v>1.446</v>
       </c>
       <c r="I14">
-        <v>1.093</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="J14">
-        <v>0.11118037743130656</v>
+        <v>0.1191792579410617</v>
       </c>
       <c r="K14">
-        <v>0.93193111993703381</v>
+        <v>0.97063069695124071</v>
       </c>
       <c r="L14">
-        <v>18.744</v>
+        <v>19.731999999999999</v>
       </c>
       <c r="M14">
-        <v>118.744</v>
+        <v>119.732</v>
       </c>
       <c r="N14">
-        <v>1.3069999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="O14">
-        <v>1.107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1154,46 +1154,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.11718907026491406</v>
+        <v>0.11881636685995377</v>
       </c>
       <c r="D15">
-        <v>0.92438418642716502</v>
+        <v>0.96714489496948375</v>
       </c>
       <c r="E15">
-        <v>9.0459999999999994</v>
+        <v>9.2070000000000007</v>
       </c>
       <c r="F15">
-        <v>119.151</v>
+        <v>119.81399999999999</v>
       </c>
       <c r="G15">
-        <v>9.1460000000000008</v>
+        <v>10.039</v>
       </c>
       <c r="H15">
-        <v>0.93200000000000005</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="I15">
-        <v>0.78300000000000003</v>
+        <v>0.88</v>
       </c>
       <c r="J15">
-        <v>0.10999594484995942</v>
+        <v>0.127176220806794</v>
       </c>
       <c r="K15">
-        <v>0.9005799755799756</v>
+        <v>0.98028052805280541</v>
       </c>
       <c r="L15">
-        <v>19.151</v>
+        <v>19.814</v>
       </c>
       <c r="M15">
-        <v>101.923</v>
+        <v>102.03100000000001</v>
       </c>
       <c r="N15">
-        <v>0.89</v>
+        <v>1.085</v>
       </c>
       <c r="O15">
-        <v>0.753</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1201,46 +1201,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0.11646135111963711</v>
+        <v>0.11960827067688061</v>
       </c>
       <c r="D16">
-        <v>0.92883369337052291</v>
+        <v>0.96675563931546005</v>
       </c>
       <c r="E16">
-        <v>8.9469999999999992</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F16">
-        <v>118.839</v>
+        <v>119.79300000000001</v>
       </c>
       <c r="G16">
-        <v>8.8469999999999995</v>
+        <v>9.9190000000000005</v>
       </c>
       <c r="H16">
-        <v>1.278</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="I16">
-        <v>1.123</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="J16">
-        <v>0.13173190984578889</v>
+        <v>0.1366078366078366</v>
       </c>
       <c r="K16">
-        <v>0.93759360232642697</v>
+        <v>0.96499764927127407</v>
       </c>
       <c r="L16">
-        <v>18.838999999999999</v>
+        <v>19.792999999999999</v>
       </c>
       <c r="M16">
-        <v>102.70399999999999</v>
+        <v>102.879</v>
       </c>
       <c r="N16">
-        <v>1.2949999999999999</v>
+        <v>1.476</v>
       </c>
       <c r="O16">
-        <v>1.0880000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2689999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1248,43 +1248,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0.11452222447298742</v>
+        <v>0.12111051265278157</v>
       </c>
       <c r="D17">
-        <v>0.93208176432608503</v>
+        <v>0.96574879639840872</v>
       </c>
       <c r="E17">
-        <v>8.9529999999999994</v>
+        <v>9.09</v>
       </c>
       <c r="F17">
-        <v>118.75</v>
+        <v>119.754</v>
       </c>
       <c r="G17">
-        <v>8.9440000000000008</v>
+        <v>9.7650000000000006</v>
       </c>
       <c r="H17">
-        <v>2.109</v>
+        <v>2.4</v>
       </c>
       <c r="I17">
-        <v>1.76</v>
+        <v>1.966</v>
       </c>
       <c r="J17">
-        <v>0.10741846577859443</v>
+        <v>0.11946131268660494</v>
       </c>
       <c r="K17">
-        <v>0.93300609343263352</v>
+        <v>0.96136763038548767</v>
       </c>
       <c r="L17">
-        <v>18.75</v>
+        <v>19.754000000000001</v>
       </c>
       <c r="M17">
-        <v>104.291</v>
+        <v>104.66500000000001</v>
       </c>
       <c r="N17">
-        <v>2.0619999999999998</v>
+        <v>2.3079999999999998</v>
       </c>
       <c r="O17">
-        <v>1.8049999999999999</v>
+        <v>2.0049999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1293,29 +1293,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA8C26D-374C-4DE0-9A04-E8CE87C49E2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DD4E7F-6FA4-4B51-BC89-D92B7A7C5B53}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
